--- a/LeadSuites.xlsx
+++ b/LeadSuites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>TCID</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>signin</t>
+  </si>
+  <si>
+    <t>Verify the title</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
+  </si>
+  <si>
+    <t>Login | Salesforce</t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -555,16 +564,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -575,28 +584,40 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -726,9 +747,17 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/LeadSuites.xlsx
+++ b/LeadSuites.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\java project\CRMframework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\java project\CRMframework\src\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>navigate</t>
   </si>
   <si>
-    <t>https://login.salesforce.com/</t>
-  </si>
-  <si>
     <t>Enter the username</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>Enter ther password</t>
-  </si>
-  <si>
-    <t>pawan123</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -104,7 +95,22 @@
     <t>verifyTitle</t>
   </si>
   <si>
-    <t>Login | Salesforce</t>
+    <t>https://www.gmail.com/</t>
+  </si>
+  <si>
+    <t>heyBro@49</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>gmail</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,8 +535,8 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -544,13 +550,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -564,16 +570,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -584,16 +590,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -604,28 +610,40 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -755,11 +773,21 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>